--- a/final_results_fairness_ml.xlsx
+++ b/final_results_fairness_ml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist1103232_tecnico_ulisboa_pt/Documents/IST/UFOP/fairness_ml_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{7EA15A01-5A68-E045-B5A4-139A33DC1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5282AC3A-B59C-144D-9538-D263AE7775C3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{7EA15A01-5A68-E045-B5A4-139A33DC1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D56EDB5-478A-264A-9A4A-CBEEC2EF4E8A}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="500" windowWidth="27840" windowHeight="15680" xr2:uid="{1901BAC5-A35C-DB45-BF3C-859D087482E2}"/>
   </bookViews>
@@ -876,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7320BFB-0E55-494B-8F60-049F49B3E57B}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2401,25 +2401,23 @@
       <c r="D59">
         <v>10</v>
       </c>
+      <c r="E59">
+        <v>0.1</v>
+      </c>
       <c r="F59">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
       </c>
       <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" t="s">
         <v>153</v>
-      </c>
-      <c r="J59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/final_results_fairness_ml.xlsx
+++ b/final_results_fairness_ml.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist1103232_tecnico_ulisboa_pt/Documents/IST/UFOP/fairness_ml_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/ist1103232_tecnico_ulisboa_pt/Documents/UFOP/fairness_ml_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{7EA15A01-5A68-E045-B5A4-139A33DC1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D56EDB5-478A-264A-9A4A-CBEEC2EF4E8A}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{7EA15A01-5A68-E045-B5A4-139A33DC1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58907E07-EDED-8F4E-99A2-10F1DB7B7BE2}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="500" windowWidth="27840" windowHeight="15680" xr2:uid="{1901BAC5-A35C-DB45-BF3C-859D087482E2}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="15680" xr2:uid="{1901BAC5-A35C-DB45-BF3C-859D087482E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="164">
   <si>
     <t>priority</t>
   </si>
@@ -501,6 +501,33 @@
   </si>
   <si>
     <t>[[-0.8274275660514832, 0.05611655080117164], [-0.8525011539459229, 0.08352608777839111], [-0.7522483468055725, 0.0], [-0.8399436473846436, 0.06672035091595686], [-0.8698247075080872, 0.10442753816247793], [-0.8118446469306946, 0.03862608823629377], [-0.8401923179626465, 0.0735972103796342], [-0.8699490427970886, 0.11108208911185524], [-0.7522483468055725, 0.0], [-0.866509199142456, 0.09586475851536091], [-0.7522483468055725, 0.0], [-0.8711509108543396, 0.12290442623539719], [-0.774793803691864, 0.011327673269558459], [-0.8725185394287109, 0.12368311872209817], [-0.8442952632904053, 0.07595379671921132], [-0.8643540740013123, 0.08667568412430213], [-0.8741763234138489, 0.12549879948887743]]</t>
+  </si>
+  <si>
+    <t>Disparate Impact_Race_(10, 0.001)</t>
+  </si>
+  <si>
+    <t>[[-0.8358407020568848, 0.031736330106280505], [-0.8733474016189575, 0.11274846781579595], [-0.8689957857131958, 0.09905537262022024], [-0.869658887386322, 0.10272633305943016], [-0.8387002944946289, 0.07255093505979401], [-0.8680425882339478, 0.08099846512319936], [-0.8723942041397095, 0.10750129035033358], [-0.8740519881248474, 0.12870134486009752], [-0.8682912588119507, 0.09487523732739891]]</t>
+  </si>
+  <si>
+    <t>[[0.05598517513508527], [0.0026411470462352356], [0.003050720855790057], [0.004098136157383937], [0.08762271247658386], [0.004111937526794698], [0.004108922863637425], [0.003964599406010687], [0.0027751787567281702]]</t>
+  </si>
+  <si>
+    <t>Disparate Impact_Race_(10, 0.1)</t>
+  </si>
+  <si>
+    <t>[[-0.8492684960365295, 0.08704323162154488], [-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.8497658371925354, 0.0918401166452194], [-0.872269868850708, 0.1114651150087011], [-0.7864810228347778, 0.01871680326676783], [-0.7522483468055725, 0.0], [-0.8609142303466797, 0.09908807073938186], [-0.8414356112480164, 0.07369427284381219], [-0.7522483468055725, 0.0], [-0.8176468014717102, 0.05366715855730739], [-0.869907557964325, 0.10882256523645609], [-0.8534543514251709, 0.0931286934121803], [-0.8356749415397644, 0.06697342274946812], [-0.8728501200675964, 0.1473797745945159], [-0.8677939176559448, 0.09978827484142862], [-0.8480666279792786, 0.08606203007336954], [-0.8373740911483765, 0.07329409172073949], [-0.8294997811317444, 0.06517921826213818], [-0.8729329705238342, 0.14840315478160976], [-0.8193874359130859, 0.05531019067518004], [-0.8728086352348328, 0.1232533351597845], [-0.8282979130744934, 0.06219227409872343], [-0.8709851503372192, 0.11140907030347144], [-0.843880832195282, 0.08025511498225886], [-0.7522483468055725, 0.0], [-0.8562725186347961, 0.09428376898256417]]</t>
+  </si>
+  <si>
+    <t>[[0.0559131138617306], [0.09682933141436782], [0.09579316406203515], [0.09086869075900025], [0.0029178281412218844], [0.08972773965382774], [0.08021221109984895], [0.015892213087910702], [0.09024082380124918], [0.09201307802053099], [0.09248459321950579], [0.003447652230894001], [0.0686353061976405], [0.07533702617052299], [0.002238972884040881], [0.006149233861657666], [0.09521802220881674], [0.09237673645176012], [0.07446685566734379], [0.00420764828510944], [0.09685155655768296], [0.0025366716320966883], [0.08425689457969016], [0.003458399110913096], [0.07686105793860915], [0.09594814443116047], [0.028558958983729753]]</t>
+  </si>
+  <si>
+    <t>Disparate Impact_Race_(10, 10)</t>
+  </si>
+  <si>
+    <t>[[-0.8557337522506714, 0.09314423630511513], [-0.8520452380180359, 0.08720491640406595], [-0.8750466108322144, 0.1241426982036479], [-0.8685399293899536, 0.10393455113511811], [-0.8459529876708984, 0.07698459363944835], [-0.8500974178314209, 0.08589318653103202], [-0.8474035263061523, 0.08491869228935141], [-0.8693273663520813, 0.10463288493054618], [-0.8712337613105774, 0.10907466966999213], [-0.8607070446014404, 0.09411873054679575], [-0.7522483468055725, 0.0], [-0.872269868850708, 0.1137642377897516], [-0.8725185394287109, 0.11862219799852684], [-0.8453313708305359, 0.0564372761396149], [-0.8497244119644165, 0.08562702255118981]]</t>
+  </si>
+  <si>
+    <t>[[0.020524779748178592], [0.06707970426682239], [0.0029124968357005804], [0.003113625462404887], [0.06704157265780117], [0.023919763672682306], [0.07603086557371663], [0.005476192446241146], [0.003424572246084591], [0.008441450634756771], [0.09840613686151646], [0.003086189732474945], [0.003159775616756344], [0.07258959008556169], [0.06445239845264936]]</t>
   </si>
 </sst>
 </file>
@@ -878,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7320BFB-0E55-494B-8F60-049F49B3E57B}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2132,6 +2159,102 @@
         <v>151</v>
       </c>
     </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>1E-3</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>26</v>
